--- a/StructureDefinition-ext-R5-DiagnosticReport.supportingInfo.xlsx
+++ b/StructureDefinition-ext-R5-DiagnosticReport.supportingInfo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `DiagnosticReport.supportingInfo` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `DiagnosticReport.supportingInfo` is mapped to FHIR R4 structure `DiagnosticReport`, but has no target element specified.</t>
+Element `DiagnosticReport.supportingInfo` is will have a context of DiagnosticReport based on following the parent source element upwards and mapping to `DiagnosticReport`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:DiagnosticReport</t>
   </si>
   <si>
     <t>ID</t>
@@ -342,7 +342,7 @@
   </si>
   <si>
     <t>Element `DiagnosticReport.supportingInfo.type` is part of an existing definition because parent element `DiagnosticReport.supportingInfo` requires a cross-version extension.
-Element `DiagnosticReport.supportingInfo.type` is mapped to FHIR R4 structure `DiagnosticReport`, but has no target element specified.</t>
+Element `DiagnosticReport.supportingInfo.type` is will have a context of DiagnosticReport based on following the parent source element upwards and mapping to `DiagnosticReport`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -425,7 +425,8 @@
   </si>
   <si>
     <t>Element `DiagnosticReport.supportingInfo.reference` is part of an existing definition because parent element `DiagnosticReport.supportingInfo` requires a cross-version extension.
-Element `DiagnosticReport.supportingInfo.reference` is mapped to FHIR R4 structure `DiagnosticReport`, but has no target element specified.</t>
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DiagnosticReport.supportingInfo.reference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `DiagnosticReport.supportingInfo.reference` is will have a context of DiagnosticReport based on following the parent source element upwards and mapping to `DiagnosticReport`.</t>
   </si>
   <si>
     <t>Extension.extension:reference.id</t>
@@ -791,7 +792,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="144.3515625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="206.4140625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-DiagnosticReport.supportingInfo.xlsx
+++ b/StructureDefinition-ext-R5-DiagnosticReport.supportingInfo.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="141">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `DiagnosticReport.supportingInfo` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `DiagnosticReport.supportingInfo` is will have a context of DiagnosticReport based on following the parent source element upwards and mapping to `DiagnosticReport`.</t>
+Element `DiagnosticReport.supportingInfo` has a context of DiagnosticReport based on following the parent source element upwards and mapping to `DiagnosticReport`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -342,7 +342,7 @@
   </si>
   <si>
     <t>Element `DiagnosticReport.supportingInfo.type` is part of an existing definition because parent element `DiagnosticReport.supportingInfo` requires a cross-version extension.
-Element `DiagnosticReport.supportingInfo.type` is will have a context of DiagnosticReport based on following the parent source element upwards and mapping to `DiagnosticReport`.</t>
+Element `DiagnosticReport.supportingInfo.type` has a context of DiagnosticReport based on following the parent source element upwards and mapping to `DiagnosticReport`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -389,6 +389,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DiagnosticReport.supportingInfo.type</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -426,7 +429,7 @@
   <si>
     <t>Element `DiagnosticReport.supportingInfo.reference` is part of an existing definition because parent element `DiagnosticReport.supportingInfo` requires a cross-version extension.
 Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DiagnosticReport.supportingInfo.reference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `DiagnosticReport.supportingInfo.reference` is will have a context of DiagnosticReport based on following the parent source element upwards and mapping to `DiagnosticReport`.</t>
+Element `DiagnosticReport.supportingInfo.reference` has a context of DiagnosticReport based on following the parent source element upwards and mapping to `DiagnosticReport`.</t>
   </si>
   <si>
     <t>Extension.extension:reference.id</t>
@@ -436,6 +439,9 @@
   </si>
   <si>
     <t>Extension.extension:reference.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DiagnosticReport.supportingInfo.reference</t>
   </si>
   <si>
     <t>Extension.extension:reference.value[x]</t>
@@ -1598,7 +1604,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1640,7 +1646,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1655,15 +1661,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1686,7 +1692,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>102</v>
@@ -1743,7 +1749,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1755,21 +1761,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1794,14 +1800,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1870,7 +1876,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -1973,7 +1979,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2078,7 +2084,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2121,7 +2127,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2163,7 +2169,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2178,15 +2184,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2209,13 +2215,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2266,7 +2272,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2278,18 +2284,18 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2371,7 +2377,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>86</v>
@@ -2386,15 +2392,15 @@
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2417,13 +2423,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2474,7 +2480,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2486,10 +2492,10 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-DiagnosticReport.supportingInfo.xlsx
+++ b/StructureDefinition-ext-R5-DiagnosticReport.supportingInfo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -447,7 +447,7 @@
     <t>Extension.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Procedure|0.0.1-snapshot-3|Procedure|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Observation|0.0.1-snapshot-3|Observation|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-DiagnosticReport|0.0.1-snapshot-3|DiagnosticReport|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Citation|0.0.1-snapshot-3|Basic|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Procedure|Procedure|http://hl7.org/fhir/5.0/StructureDefinition/profile-Observation|Observation|http://hl7.org/fhir/5.0/StructureDefinition/profile-DiagnosticReport|DiagnosticReport|http://hl7.org/fhir/5.0/StructureDefinition/profile-Citation|Basic)
 </t>
   </si>
   <si>

--- a/StructureDefinition-ext-R5-DiagnosticReport.supportingInfo.xlsx
+++ b/StructureDefinition-ext-R5-DiagnosticReport.supportingInfo.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -341,8 +341,7 @@
     <t>The code value for the role of the supporting information in the diagnostic report.</t>
   </si>
   <si>
-    <t>Element `DiagnosticReport.supportingInfo.type` is part of an existing definition because parent element `DiagnosticReport.supportingInfo` requires a cross-version extension.
-Element `DiagnosticReport.supportingInfo.type` has a context of DiagnosticReport based on following the parent source element upwards and mapping to `DiagnosticReport`.</t>
+    <t>Element `DiagnosticReport.supportingInfo.type` has a context of DiagnosticReport based on following the parent source element upwards and mapping to `DiagnosticReport`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -389,9 +388,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DiagnosticReport.supportingInfo.type</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -408,6 +404,12 @@
 </t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-v2-0936-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -427,8 +429,7 @@
     <t>The reference for the supporting information in the diagnostic report.</t>
   </si>
   <si>
-    <t>Element `DiagnosticReport.supportingInfo.reference` is part of an existing definition because parent element `DiagnosticReport.supportingInfo` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DiagnosticReport.supportingInfo.reference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `DiagnosticReport.supportingInfo.reference` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `DiagnosticReport.supportingInfo.reference` has a context of DiagnosticReport based on following the parent source element upwards and mapping to `DiagnosticReport`.</t>
   </si>
   <si>
@@ -441,13 +442,10 @@
     <t>Extension.extension:reference.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DiagnosticReport.supportingInfo.reference</t>
-  </si>
-  <si>
     <t>Extension.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Procedure|Procedure|http://hl7.org/fhir/5.0/StructureDefinition/profile-Observation|Observation|http://hl7.org/fhir/5.0/StructureDefinition/profile-DiagnosticReport|DiagnosticReport|http://hl7.org/fhir/5.0/StructureDefinition/profile-Citation|Basic)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Procedure|0.0.1-snapshot-3|Procedure|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Observation|0.0.1-snapshot-3|Observation|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-DiagnosticReport|0.0.1-snapshot-3|DiagnosticReport|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Citation|0.0.1-snapshot-3|Basic|4.0.1)
 </t>
   </si>
   <si>
@@ -808,8 +806,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.546875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.23046875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1604,72 +1602,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1692,7 +1690,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>102</v>
@@ -1725,13 +1723,13 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -1749,7 +1747,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1761,21 +1759,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1800,14 +1798,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1876,7 +1874,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -1979,7 +1977,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2084,7 +2082,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2127,7 +2125,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2169,22 +2167,22 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="14">
@@ -2192,7 +2190,7 @@
         <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2218,10 +2216,10 @@
         <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2272,7 +2270,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2284,18 +2282,18 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2377,30 +2375,30 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2480,7 +2478,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2492,10 +2490,10 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
